--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MI3041</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giải tích số</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/subjects.xlsx
+++ b/subjects.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giải tích 1</t>
+          <t>Giải tích 1.5</t>
         </is>
       </c>
       <c r="C2" t="n">
